--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView activeTab="1" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="personal" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="personal" r:id="rId1" sheetId="1"/>
+    <sheet name="login" r:id="rId2" sheetId="2"/>
+    <sheet name="users" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName hidden="1" name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
+    <definedName hidden="1" name="LOCAL_SECOND_FORMAT">" "</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -157,13 +158,127 @@
   </si>
   <si>
     <t>Facebook</t>
+  </si>
+  <si>
+    <t>01208</t>
+  </si>
+  <si>
+    <t>940404</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>kusiwa@</t>
+  </si>
+  <si>
+    <t>ku@cmail.club</t>
+  </si>
+  <si>
+    <t>kusiwa@cmail</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>hiwiwo@wmail.club</t>
+  </si>
+  <si>
+    <t>ntihswG0ws</t>
+  </si>
+  <si>
+    <t>kekodizy@nada.ltd</t>
+  </si>
+  <si>
+    <t>BBE4ofSo3y</t>
+  </si>
+  <si>
+    <t>debedede@cmail.club</t>
+  </si>
+  <si>
+    <t>tXGpyn9lUJ</t>
+  </si>
+  <si>
+    <t>hames@cars2.club</t>
+  </si>
+  <si>
+    <t>Wqbq5gjhyk</t>
+  </si>
+  <si>
+    <t>vily@cars2.club</t>
+  </si>
+  <si>
+    <t>59CPLmiavS</t>
+  </si>
+  <si>
+    <t>fyzixowo@banit.me</t>
+  </si>
+  <si>
+    <t>AuLWEhaGIG</t>
+  </si>
+  <si>
+    <t>lyxoq@duck2.club</t>
+  </si>
+  <si>
+    <t>IG9VzSh4PK</t>
+  </si>
+  <si>
+    <t>qipepy@banit.club</t>
+  </si>
+  <si>
+    <t>P9DdXNPmeW</t>
+  </si>
+  <si>
+    <t>patica@nada.ltd</t>
+  </si>
+  <si>
+    <t>yl61GQdRgS</t>
+  </si>
+  <si>
+    <t>cohoryxa@cmail.club</t>
+  </si>
+  <si>
+    <t>ILVHiWjnKs</t>
+  </si>
+  <si>
+    <t>xydyt@wmail.club</t>
+  </si>
+  <si>
+    <t>iRL4BwD2GM</t>
+  </si>
+  <si>
+    <t>nudu@banit.club</t>
+  </si>
+  <si>
+    <t>SuHjjg0Wae</t>
+  </si>
+  <si>
+    <t>pijyhij@banit.club</t>
+  </si>
+  <si>
+    <t>DhA4lX63hQ</t>
+  </si>
+  <si>
+    <t>gupo@banit.club</t>
+  </si>
+  <si>
+    <t>OK6vZCb6iv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +299,14 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,28 +325,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -249,10 +381,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -268,10 +400,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -429,7 +561,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -438,13 +570,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -454,7 +586,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -463,7 +595,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -472,7 +604,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -482,12 +614,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -518,7 +650,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -537,7 +669,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -549,30 +681,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="2.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -662,7 +796,7 @@
       <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <v>92003</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -717,8 +851,8 @@
       <c r="K3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="5">
-        <v>11208</v>
+      <c r="L3" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>34</v>
@@ -766,8 +900,8 @@
       <c r="K4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5">
-        <v>94044</v>
+      <c r="L4" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>43</v>
@@ -786,31 +920,221 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A6"/>
+    <hyperlink r:id="rId2" ref="A5"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A7"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
+    <workbookView activeTab="2" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="personal" r:id="rId1" sheetId="1"/>
     <sheet name="login" r:id="rId2" sheetId="2"/>
     <sheet name="users" r:id="rId3" sheetId="3"/>
+    <sheet name="emails" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -187,88 +188,73 @@
     <t>Password</t>
   </si>
   <si>
-    <t>hiwiwo@wmail.club</t>
-  </si>
-  <si>
-    <t>ntihswG0ws</t>
-  </si>
-  <si>
-    <t>kekodizy@nada.ltd</t>
-  </si>
-  <si>
-    <t>BBE4ofSo3y</t>
-  </si>
-  <si>
-    <t>debedede@cmail.club</t>
-  </si>
-  <si>
-    <t>tXGpyn9lUJ</t>
-  </si>
-  <si>
-    <t>hames@cars2.club</t>
-  </si>
-  <si>
-    <t>Wqbq5gjhyk</t>
-  </si>
-  <si>
-    <t>vily@cars2.club</t>
-  </si>
-  <si>
-    <t>59CPLmiavS</t>
-  </si>
-  <si>
-    <t>fyzixowo@banit.me</t>
-  </si>
-  <si>
-    <t>AuLWEhaGIG</t>
-  </si>
-  <si>
-    <t>lyxoq@duck2.club</t>
-  </si>
-  <si>
-    <t>IG9VzSh4PK</t>
-  </si>
-  <si>
-    <t>qipepy@banit.club</t>
-  </si>
-  <si>
-    <t>P9DdXNPmeW</t>
-  </si>
-  <si>
-    <t>patica@nada.ltd</t>
-  </si>
-  <si>
-    <t>yl61GQdRgS</t>
-  </si>
-  <si>
-    <t>cohoryxa@cmail.club</t>
-  </si>
-  <si>
-    <t>ILVHiWjnKs</t>
-  </si>
-  <si>
-    <t>xydyt@wmail.club</t>
-  </si>
-  <si>
-    <t>iRL4BwD2GM</t>
-  </si>
-  <si>
-    <t>nudu@banit.club</t>
-  </si>
-  <si>
-    <t>SuHjjg0Wae</t>
-  </si>
-  <si>
-    <t>pijyhij@banit.club</t>
-  </si>
-  <si>
-    <t>DhA4lX63hQ</t>
-  </si>
-  <si>
-    <t>gupo@banit.club</t>
-  </si>
-  <si>
-    <t>OK6vZCb6iv</t>
+    <t>invalid emails</t>
+  </si>
+  <si>
+    <t>plainaddress</t>
+  </si>
+  <si>
+    <t>#@%^%#$@#$@#.com</t>
+  </si>
+  <si>
+    <t>@domain.com</t>
+  </si>
+  <si>
+    <t>Joe Smith &lt;email@domain.com&gt;</t>
+  </si>
+  <si>
+    <t>email.domain.com</t>
+  </si>
+  <si>
+    <t>email@domain@domain.com</t>
+  </si>
+  <si>
+    <t>.email@domain.com</t>
+  </si>
+  <si>
+    <t>email.@domain.com</t>
+  </si>
+  <si>
+    <t>email..email@domain.com</t>
+  </si>
+  <si>
+    <t>あいうえお@domain.com</t>
+  </si>
+  <si>
+    <t>email@domain.com (Joe Smith)</t>
+  </si>
+  <si>
+    <t>email@domain</t>
+  </si>
+  <si>
+    <t>email@-domain.com</t>
+  </si>
+  <si>
+    <t>email@domain.web</t>
+  </si>
+  <si>
+    <t>email@111.222.333.44444</t>
+  </si>
+  <si>
+    <t>email@domain..com</t>
+  </si>
+  <si>
+    <t>jypudiry@amail.club</t>
+  </si>
+  <si>
+    <t>fEpkeCRVzY</t>
+  </si>
+  <si>
+    <t>dybo@banit.me</t>
+  </si>
+  <si>
+    <t>cqqCMyVmsi</t>
+  </si>
+  <si>
+    <t>buguma@duck2.club</t>
+  </si>
+  <si>
+    <t>tx5clQNdOu</t>
   </si>
 </sst>
 </file>
@@ -278,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +293,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +321,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -352,6 +344,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -929,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1003,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1024,117 +1017,136 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="16.5" r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row ht="16.5" r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="16.5" r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row ht="16.5" r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="16.5" r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="16.5" r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row ht="16.5" r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row ht="16.5" r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row ht="16.5" r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row ht="16.5" r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row ht="16.5" r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row ht="16.5" r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="16.5" r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row ht="16.5" r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row ht="16.5" r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A9"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId2" verticalDpi="4294967293"/>
+</worksheet>
 </file>
--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>tx5clQNdOu</t>
+  </si>
+  <si>
+    <t>cicywuj@wmail.club</t>
+  </si>
+  <si>
+    <t>JYyDQslusd</t>
+  </si>
+  <si>
+    <t>givimesa@banit.me</t>
+  </si>
+  <si>
+    <t>WG4wankI2w</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1051,22 @@
         <v>77</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="personal" r:id="rId1" sheetId="1"/>
-    <sheet name="login" r:id="rId2" sheetId="2"/>
-    <sheet name="users" r:id="rId3" sheetId="3"/>
-    <sheet name="emails" r:id="rId4" sheetId="4"/>
+    <sheet name="personal" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="3" r:id="rId3"/>
+    <sheet name="emails" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
-    <definedName hidden="1" name="LOCAL_SECOND_FORMAT">" "</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -237,36 +237,6 @@
   </si>
   <si>
     <t>email@domain..com</t>
-  </si>
-  <si>
-    <t>jypudiry@amail.club</t>
-  </si>
-  <si>
-    <t>fEpkeCRVzY</t>
-  </si>
-  <si>
-    <t>dybo@banit.me</t>
-  </si>
-  <si>
-    <t>cqqCMyVmsi</t>
-  </si>
-  <si>
-    <t>buguma@duck2.club</t>
-  </si>
-  <si>
-    <t>tx5clQNdOu</t>
-  </si>
-  <si>
-    <t>cicywuj@wmail.club</t>
-  </si>
-  <si>
-    <t>JYyDQslusd</t>
-  </si>
-  <si>
-    <t>givimesa@banit.me</t>
-  </si>
-  <si>
-    <t>WG4wankI2w</t>
   </si>
 </sst>
 </file>
@@ -330,37 +300,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -386,10 +356,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -405,10 +375,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -566,7 +536,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -575,13 +545,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -591,7 +561,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -600,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -609,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -619,12 +589,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -655,7 +625,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -674,7 +644,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -686,32 +656,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="2.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="16" max="17" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -925,13 +895,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="4294967293"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -940,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,25 +965,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A6"/>
-    <hyperlink r:id="rId2" ref="A5"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A7"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,56 +994,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1082,7 +1009,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1090,37 +1017,37 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="16.5" r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row ht="16.5" r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row ht="16.5" r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row ht="16.5" r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row ht="16.5" r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row ht="16.5" r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row ht="16.5" r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -1130,51 +1057,51 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="16.5" r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row ht="16.5" r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row ht="16.5" r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row ht="16.5" r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row ht="16.5" r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row ht="16.5" r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row ht="16.5" r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row ht="16.5" r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A9"/>
+    <hyperlink ref="A9" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId2" verticalDpi="4294967293"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="personal" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="users" sheetId="3" r:id="rId3"/>
-    <sheet name="emails" sheetId="4" r:id="rId4"/>
+    <sheet name="personal" r:id="rId1" sheetId="1"/>
+    <sheet name="login" r:id="rId2" sheetId="2"/>
+    <sheet name="users" r:id="rId3" sheetId="3"/>
+    <sheet name="emails" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
+    <definedName hidden="1" name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
+    <definedName hidden="1" name="LOCAL_SECOND_FORMAT">" "</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -237,6 +237,42 @@
   </si>
   <si>
     <t>email@domain..com</t>
+  </si>
+  <si>
+    <t>lyfywe@amail.club</t>
+  </si>
+  <si>
+    <t>rfYAgc9iOM</t>
+  </si>
+  <si>
+    <t>nufyjiju@cars2.club</t>
+  </si>
+  <si>
+    <t>0KvU6LyAkR</t>
+  </si>
+  <si>
+    <t>pybawy@banit.club</t>
+  </si>
+  <si>
+    <t>Jhef4SBDib</t>
+  </si>
+  <si>
+    <t>jumobuhe@banit.me</t>
+  </si>
+  <si>
+    <t>MvuO4T16Ag</t>
+  </si>
+  <si>
+    <t>lyqoh@wmail.club</t>
+  </si>
+  <si>
+    <t>PCdlVZvdLt</t>
+  </si>
+  <si>
+    <t>zybateki@cars2.club</t>
+  </si>
+  <si>
+    <t>WRzsUt20UX</t>
   </si>
 </sst>
 </file>
@@ -300,37 +336,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -356,10 +392,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -375,10 +411,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -536,7 +572,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -545,13 +581,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -561,7 +597,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -570,7 +606,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -579,7 +615,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -589,12 +625,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -625,7 +661,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -644,7 +680,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -656,32 +692,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="2.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -895,13 +931,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -910,7 +946,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,25 +1001,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="A6"/>
+    <hyperlink r:id="rId2" ref="A5"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,13 +1030,61 @@
         <v>54</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,7 +1093,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1017,37 +1101,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -1057,51 +1141,51 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="A9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId2" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>WRzsUt20UX</t>
+  </si>
+  <si>
+    <t>pififer@banit.me</t>
+  </si>
+  <si>
+    <t>9UpbOvwJS8</t>
   </si>
 </sst>
 </file>
@@ -1078,6 +1084,14 @@
         <v>83</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IdeaProjects/Promytheus/promy.xlsx
+++ b/IdeaProjects/Promytheus/promy.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
+    <workbookView activeTab="4" windowHeight="7755" windowWidth="20115" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="personal" r:id="rId1" sheetId="1"/>
     <sheet name="login" r:id="rId2" sheetId="2"/>
     <sheet name="users" r:id="rId3" sheetId="3"/>
     <sheet name="emails" r:id="rId4" sheetId="4"/>
+    <sheet name="category" r:id="rId5" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(LOCAL_YEAR_FORMAT,4)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_MONTH_FORMAT,2)&LOCAL_DATE_SEPARATOR&REPT(LOCAL_DAY_FORMAT,2)&" "&REPT(LOCAL_HOUR_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_MINUTE_FORMAT,2)&LOCAL_TIME_SEPARATOR&REPT(LOCAL_SECOND_FORMAT,2)]]></definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -279,6 +280,123 @@
   </si>
   <si>
     <t>9UpbOvwJS8</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Sprint Runner/Long Distance Runner</t>
+  </si>
+  <si>
+    <t>Gymnast</t>
+  </si>
+  <si>
+    <t>Long Jump</t>
+  </si>
+  <si>
+    <t>Cooking/Baking</t>
+  </si>
+  <si>
+    <t>wajeje@nada.email</t>
+  </si>
+  <si>
+    <t>vfhdtd3KJZ</t>
+  </si>
+  <si>
+    <t>vyfan@duck2.club</t>
+  </si>
+  <si>
+    <t>7QGKAghpzF</t>
+  </si>
+  <si>
+    <t>kinufyci@amail.club</t>
+  </si>
+  <si>
+    <t>ra4Sc6kOUR</t>
+  </si>
+  <si>
+    <t>tynuwy@nada.ltd</t>
+  </si>
+  <si>
+    <t>j1h8TkMgwi</t>
+  </si>
+  <si>
+    <t>fufypyna@amail.club</t>
+  </si>
+  <si>
+    <t>oFSDVxqq77</t>
+  </si>
+  <si>
+    <t>cepunipu@nada.email</t>
+  </si>
+  <si>
+    <t>CWFQEtfyvT</t>
+  </si>
+  <si>
+    <t>tubataq@banit.me</t>
+  </si>
+  <si>
+    <t>ciXS7DYecf</t>
+  </si>
+  <si>
+    <t>bemu@wmail.club</t>
+  </si>
+  <si>
+    <t>U8DoXzjIlW</t>
+  </si>
+  <si>
+    <t>roqa@cars2.club</t>
+  </si>
+  <si>
+    <t>abVGy131IH</t>
+  </si>
+  <si>
+    <t>kadasiv@cars2.club</t>
+  </si>
+  <si>
+    <t>SeLtdExdut</t>
+  </si>
+  <si>
+    <t>cifav@amail.club</t>
+  </si>
+  <si>
+    <t>KckXz8sUzt</t>
+  </si>
+  <si>
+    <t>getyxuwy@banit.club</t>
+  </si>
+  <si>
+    <t>H1a6mV4C3I</t>
+  </si>
+  <si>
+    <t>bipynoko@duck2.club</t>
+  </si>
+  <si>
+    <t>Y3Bis8S1Bs</t>
+  </si>
+  <si>
+    <t>woge@duck2.club</t>
+  </si>
+  <si>
+    <t>Gbh6cGkXjB</t>
   </si>
 </sst>
 </file>
@@ -288,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +441,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +469,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -369,6 +493,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1018,9 +1143,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1036,7 +1161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1044,7 +1169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1052,7 +1177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1060,7 +1185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1068,7 +1193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1076,7 +1201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1084,12 +1209,124 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1202,4 +1439,78 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId2" verticalDpi="4294967293"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="4294967293"/>
+</worksheet>
 </file>